--- a/results/ugrad-009-01/ugrad-009-01-freq-context-20.xlsx
+++ b/results/ugrad-009-01/ugrad-009-01-freq-context-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\desti\Documents\GitHub\P4P\results\ugrad-009-01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F64CDE-9BB1-4504-AE04-C4219FF05DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168E7C3C-0DE3-4812-8507-0F20A1C4B67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ugrad-009-01-freq-20" sheetId="1" r:id="rId1"/>
@@ -1033,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,7 +1047,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>raw!A1</f>
-        <v>gross</v>
+        <v>ytd</v>
       </c>
       <c r="B1">
         <f>raw!B1</f>
@@ -1064,21 +1064,21 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>raw!A2</f>
-        <v>name</v>
+        <v>rate</v>
       </c>
       <c r="B2">
         <f>raw!B2</f>
         <v>20</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C52" si="0">B2/$D$1</f>
+        <f t="shared" ref="C2:C56" si="0">B2/$D$1</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>raw!A3</f>
-        <v>rate</v>
+        <v>employe</v>
       </c>
       <c r="B3">
         <f>raw!B3</f>
@@ -1092,7 +1092,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>raw!A4</f>
-        <v>ytd</v>
+        <v>pay</v>
       </c>
       <c r="B4">
         <f>raw!B4</f>
@@ -1106,7 +1106,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>raw!A5</f>
-        <v>hour</v>
+        <v>deduct</v>
       </c>
       <c r="B5">
         <f>raw!B5</f>
@@ -1120,7 +1120,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>raw!A6</f>
-        <v>deduct</v>
+        <v>name</v>
       </c>
       <c r="B6">
         <f>raw!B6</f>
@@ -1134,7 +1134,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>raw!A7</f>
-        <v>date</v>
+        <v>payrol</v>
       </c>
       <c r="B7">
         <f>raw!B7</f>
@@ -1148,7 +1148,7 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>raw!A8</f>
-        <v>employe</v>
+        <v>hour</v>
       </c>
       <c r="B8">
         <f>raw!B8</f>
@@ -1162,7 +1162,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>raw!A9</f>
-        <v>payrol</v>
+        <v>date</v>
       </c>
       <c r="B9">
         <f>raw!B9</f>
@@ -1176,7 +1176,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>raw!A10</f>
-        <v>pay</v>
+        <v>gross</v>
       </c>
       <c r="B10">
         <f>raw!B10</f>
@@ -1260,7 +1260,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>raw!A16</f>
-        <v>employ</v>
+        <v>year</v>
       </c>
       <c r="B16">
         <f>raw!B16</f>
@@ -1274,7 +1274,7 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>raw!A17</f>
-        <v>year</v>
+        <v>employ</v>
       </c>
       <c r="B17">
         <f>raw!B17</f>
@@ -1288,7 +1288,7 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>raw!A18</f>
-        <v>tid</v>
+        <v>record</v>
       </c>
       <c r="B18">
         <f>raw!B18</f>
@@ -1316,7 +1316,7 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>raw!A20</f>
-        <v>time</v>
+        <v>tid</v>
       </c>
       <c r="B20">
         <f>raw!B20</f>
@@ -1330,7 +1330,7 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>raw!A21</f>
-        <v>record</v>
+        <v>time</v>
       </c>
       <c r="B21">
         <f>raw!B21</f>
@@ -1414,7 +1414,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>raw!A27</f>
-        <v>work</v>
+        <v>person</v>
       </c>
       <c r="B27">
         <f>raw!B27</f>
@@ -1428,7 +1428,7 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>raw!A28</f>
-        <v>person</v>
+        <v>calendar</v>
       </c>
       <c r="B28">
         <f>raw!B28</f>
@@ -1442,7 +1442,7 @@
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>raw!A29</f>
-        <v>calendar</v>
+        <v>work</v>
       </c>
       <c r="B29">
         <f>raw!B29</f>
@@ -1456,7 +1456,7 @@
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>raw!A30</f>
-        <v>earn</v>
+        <v>emp</v>
       </c>
       <c r="B30">
         <f>raw!B30</f>
@@ -1470,7 +1470,7 @@
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>raw!A31</f>
-        <v>emp</v>
+        <v>bracket</v>
       </c>
       <c r="B31">
         <f>raw!B31</f>
@@ -1484,7 +1484,7 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f>raw!A32</f>
-        <v>wage</v>
+        <v>earn</v>
       </c>
       <c r="B32">
         <f>raw!B32</f>
@@ -1498,7 +1498,7 @@
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f>raw!A33</f>
-        <v>bracket</v>
+        <v>wage</v>
       </c>
       <c r="B33">
         <f>raw!B33</f>
@@ -1512,7 +1512,7 @@
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f>raw!A34</f>
-        <v>day</v>
+        <v>today</v>
       </c>
       <c r="B34">
         <f>raw!B34</f>
@@ -1526,7 +1526,7 @@
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f>raw!A35</f>
-        <v>dollar</v>
+        <v>day</v>
       </c>
       <c r="B35">
         <f>raw!B35</f>
@@ -1540,7 +1540,7 @@
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f>raw!A36</f>
-        <v>today</v>
+        <v>dollar</v>
       </c>
       <c r="B36">
         <f>raw!B36</f>
@@ -1568,7 +1568,7 @@
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f>raw!A38</f>
-        <v>compani</v>
+        <v>peopl</v>
       </c>
       <c r="B38">
         <f>raw!B38</f>
@@ -1582,7 +1582,7 @@
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f>raw!A39</f>
-        <v>user</v>
+        <v>compani</v>
       </c>
       <c r="B39">
         <f>raw!B39</f>
@@ -1596,7 +1596,7 @@
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f>raw!A40</f>
-        <v>peopl</v>
+        <v>user</v>
       </c>
       <c r="B40">
         <f>raw!B40</f>
@@ -1638,7 +1638,7 @@
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f>raw!A43</f>
-        <v>currenc</v>
+        <v>cent</v>
       </c>
       <c r="B43">
         <f>raw!B43</f>
@@ -1652,7 +1652,7 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f>raw!A44</f>
-        <v>cent</v>
+        <v>hrs</v>
       </c>
       <c r="B44">
         <f>raw!B44</f>
@@ -1666,7 +1666,7 @@
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f>raw!A45</f>
-        <v>month</v>
+        <v>cash</v>
       </c>
       <c r="B45">
         <f>raw!B45</f>
@@ -1680,7 +1680,7 @@
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f>raw!A46</f>
-        <v>hrs</v>
+        <v>currenc</v>
       </c>
       <c r="B46">
         <f>raw!B46</f>
@@ -1694,7 +1694,7 @@
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f>raw!A47</f>
-        <v>cash</v>
+        <v>overtim</v>
       </c>
       <c r="B47">
         <f>raw!B47</f>
@@ -1708,7 +1708,7 @@
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f>raw!A48</f>
-        <v>overtim</v>
+        <v>month</v>
       </c>
       <c r="B48">
         <f>raw!B48</f>
@@ -1722,7 +1722,7 @@
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f>raw!A49</f>
-        <v>payment</v>
+        <v>paid</v>
       </c>
       <c r="B49">
         <f>raw!B49</f>
@@ -1750,7 +1750,7 @@
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f>raw!A51</f>
-        <v>minut</v>
+        <v>payment</v>
       </c>
       <c r="B51">
         <f>raw!B51</f>
@@ -1764,13 +1764,69 @@
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f>raw!A52</f>
-        <v>paid</v>
+        <v>minut</v>
       </c>
       <c r="B52">
         <f>raw!B52</f>
         <v>0</v>
       </c>
       <c r="C52" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f>raw!A53</f>
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <f>raw!B53</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f>raw!A54</f>
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <f>raw!B54</f>
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f>raw!A55</f>
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <f>raw!B55</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f>raw!A56</f>
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <f>raw!B56</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1784,15 +1840,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1">
         <v>20</v>
@@ -1800,7 +1856,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -1808,7 +1864,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -1816,7 +1872,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -1824,7 +1880,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -1832,7 +1888,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -1840,7 +1896,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>20</v>
@@ -1848,7 +1904,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -1856,7 +1912,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>20</v>
@@ -1864,7 +1920,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>20</v>
@@ -1912,7 +1968,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -1920,7 +1976,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>11</v>
@@ -1928,7 +1984,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -1944,7 +2000,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -1952,7 +2008,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -2000,7 +2056,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -2008,7 +2064,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>5</v>
@@ -2016,7 +2072,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>5</v>
@@ -2024,7 +2080,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -2032,7 +2088,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -2040,7 +2096,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -2048,7 +2104,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -2056,7 +2112,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -2064,7 +2120,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -2072,7 +2128,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -2088,7 +2144,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -2096,7 +2152,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -2104,7 +2160,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -2128,7 +2184,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2136,7 +2192,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2144,7 +2200,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2152,7 +2208,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -2160,7 +2216,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2168,7 +2224,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -2176,7 +2232,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2192,7 +2248,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2200,7 +2256,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>0</v>
